--- a/DATA/ide.xlsx
+++ b/DATA/ide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9690D2D2-1EAB-074E-9AFA-0880A286B96B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88A77F-816B-E84D-959B-9C5BABD5C5D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25340" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="1069">
   <si>
     <t>Bagua</t>
   </si>
@@ -2674,6 +2674,567 @@
   </si>
   <si>
     <t>91,97</t>
+  </si>
+  <si>
+    <t>64,48</t>
+  </si>
+  <si>
+    <t>54,83</t>
+  </si>
+  <si>
+    <t>37,71</t>
+  </si>
+  <si>
+    <t>43,35</t>
+  </si>
+  <si>
+    <t>46,5</t>
+  </si>
+  <si>
+    <t>52,52</t>
+  </si>
+  <si>
+    <t>70,35</t>
+  </si>
+  <si>
+    <t>82,93</t>
+  </si>
+  <si>
+    <t>47,78</t>
+  </si>
+  <si>
+    <t>67,12</t>
+  </si>
+  <si>
+    <t>61,39</t>
+  </si>
+  <si>
+    <t>73,3</t>
+  </si>
+  <si>
+    <t>48,92</t>
+  </si>
+  <si>
+    <t>81,96</t>
+  </si>
+  <si>
+    <t>61,69</t>
+  </si>
+  <si>
+    <t>60,09</t>
+  </si>
+  <si>
+    <t>75,26</t>
+  </si>
+  <si>
+    <t>69,34</t>
+  </si>
+  <si>
+    <t>31,29</t>
+  </si>
+  <si>
+    <t>42,75</t>
+  </si>
+  <si>
+    <t>44,66</t>
+  </si>
+  <si>
+    <t>49,76</t>
+  </si>
+  <si>
+    <t>73,42</t>
+  </si>
+  <si>
+    <t>88,63</t>
+  </si>
+  <si>
+    <t>43,01</t>
+  </si>
+  <si>
+    <t>29,43</t>
+  </si>
+  <si>
+    <t>67,38</t>
+  </si>
+  <si>
+    <t>72,3</t>
+  </si>
+  <si>
+    <t>25,28</t>
+  </si>
+  <si>
+    <t>34,56</t>
+  </si>
+  <si>
+    <t>33,99</t>
+  </si>
+  <si>
+    <t>53,19</t>
+  </si>
+  <si>
+    <t>27,83</t>
+  </si>
+  <si>
+    <t>95,54</t>
+  </si>
+  <si>
+    <t>82,97</t>
+  </si>
+  <si>
+    <t>85,13</t>
+  </si>
+  <si>
+    <t>58,45</t>
+  </si>
+  <si>
+    <t>64,64</t>
+  </si>
+  <si>
+    <t>63,44</t>
+  </si>
+  <si>
+    <t>61,88</t>
+  </si>
+  <si>
+    <t>92,63</t>
+  </si>
+  <si>
+    <t>45,14</t>
+  </si>
+  <si>
+    <t>26,86</t>
+  </si>
+  <si>
+    <t>30,53</t>
+  </si>
+  <si>
+    <t>36,76</t>
+  </si>
+  <si>
+    <t>43,31</t>
+  </si>
+  <si>
+    <t>50,32</t>
+  </si>
+  <si>
+    <t>38,4</t>
+  </si>
+  <si>
+    <t>46,88</t>
+  </si>
+  <si>
+    <t>45,9</t>
+  </si>
+  <si>
+    <t>54,03</t>
+  </si>
+  <si>
+    <t>63,48</t>
+  </si>
+  <si>
+    <t>57,18</t>
+  </si>
+  <si>
+    <t>51,34</t>
+  </si>
+  <si>
+    <t>36,21</t>
+  </si>
+  <si>
+    <t>51,67</t>
+  </si>
+  <si>
+    <t>44,75</t>
+  </si>
+  <si>
+    <t>47,26</t>
+  </si>
+  <si>
+    <t>66,34</t>
+  </si>
+  <si>
+    <t>48,11</t>
+  </si>
+  <si>
+    <t>55,09</t>
+  </si>
+  <si>
+    <t>13,79</t>
+  </si>
+  <si>
+    <t>76,12</t>
+  </si>
+  <si>
+    <t>93,04</t>
+  </si>
+  <si>
+    <t>90,37</t>
+  </si>
+  <si>
+    <t>48,24</t>
+  </si>
+  <si>
+    <t>43,54</t>
+  </si>
+  <si>
+    <t>52,64</t>
+  </si>
+  <si>
+    <t>34,1</t>
+  </si>
+  <si>
+    <t>70,11</t>
+  </si>
+  <si>
+    <t>39,44</t>
+  </si>
+  <si>
+    <t>45,85</t>
+  </si>
+  <si>
+    <t>40,92</t>
+  </si>
+  <si>
+    <t>41,15</t>
+  </si>
+  <si>
+    <t>46,32</t>
+  </si>
+  <si>
+    <t>52,65</t>
+  </si>
+  <si>
+    <t>59,23</t>
+  </si>
+  <si>
+    <t>40,41</t>
+  </si>
+  <si>
+    <t>31,17</t>
+  </si>
+  <si>
+    <t>36,93</t>
+  </si>
+  <si>
+    <t>20,88</t>
+  </si>
+  <si>
+    <t>25,91</t>
+  </si>
+  <si>
+    <t>24,04</t>
+  </si>
+  <si>
+    <t>28,87</t>
+  </si>
+  <si>
+    <t>65,54</t>
+  </si>
+  <si>
+    <t>25,58</t>
+  </si>
+  <si>
+    <t>49,45</t>
+  </si>
+  <si>
+    <t>53,17</t>
+  </si>
+  <si>
+    <t>41,53</t>
+  </si>
+  <si>
+    <t>51,54</t>
+  </si>
+  <si>
+    <t>23,83</t>
+  </si>
+  <si>
+    <t>35,91</t>
+  </si>
+  <si>
+    <t>25,54</t>
+  </si>
+  <si>
+    <t>36,4</t>
+  </si>
+  <si>
+    <t>31,87</t>
+  </si>
+  <si>
+    <t>94,27</t>
+  </si>
+  <si>
+    <t>83,15</t>
+  </si>
+  <si>
+    <t>84,17</t>
+  </si>
+  <si>
+    <t>91,18</t>
+  </si>
+  <si>
+    <t>70,46</t>
+  </si>
+  <si>
+    <t>85,42</t>
+  </si>
+  <si>
+    <t>58,17</t>
+  </si>
+  <si>
+    <t>58,93</t>
+  </si>
+  <si>
+    <t>55,89</t>
+  </si>
+  <si>
+    <t>23,29</t>
+  </si>
+  <si>
+    <t>51,84</t>
+  </si>
+  <si>
+    <t>62,19</t>
+  </si>
+  <si>
+    <t>75,59</t>
+  </si>
+  <si>
+    <t>98,06</t>
+  </si>
+  <si>
+    <t>65,46</t>
+  </si>
+  <si>
+    <t>51,47</t>
+  </si>
+  <si>
+    <t>84,75</t>
+  </si>
+  <si>
+    <t>54,22</t>
+  </si>
+  <si>
+    <t>61,66</t>
+  </si>
+  <si>
+    <t>82,13</t>
+  </si>
+  <si>
+    <t>58,11</t>
+  </si>
+  <si>
+    <t>39,53</t>
+  </si>
+  <si>
+    <t>45,59</t>
+  </si>
+  <si>
+    <t>66,24</t>
+  </si>
+  <si>
+    <t>84,93</t>
+  </si>
+  <si>
+    <t>86,02</t>
+  </si>
+  <si>
+    <t>76,31</t>
+  </si>
+  <si>
+    <t>73,09</t>
+  </si>
+  <si>
+    <t>97,56</t>
+  </si>
+  <si>
+    <t>51,64</t>
+  </si>
+  <si>
+    <t>39,99</t>
+  </si>
+  <si>
+    <t>86,35</t>
+  </si>
+  <si>
+    <t>85,18</t>
+  </si>
+  <si>
+    <t>73,66</t>
+  </si>
+  <si>
+    <t>85,15</t>
+  </si>
+  <si>
+    <t>77,85</t>
+  </si>
+  <si>
+    <t>52,34</t>
+  </si>
+  <si>
+    <t>57,3</t>
+  </si>
+  <si>
+    <t>44,49</t>
+  </si>
+  <si>
+    <t>32,46</t>
+  </si>
+  <si>
+    <t>23,22</t>
+  </si>
+  <si>
+    <t>27,1</t>
+  </si>
+  <si>
+    <t>33,51</t>
+  </si>
+  <si>
+    <t>32,08</t>
+  </si>
+  <si>
+    <t>84,22</t>
+  </si>
+  <si>
+    <t>37,07</t>
+  </si>
+  <si>
+    <t>56,49</t>
+  </si>
+  <si>
+    <t>80,85</t>
+  </si>
+  <si>
+    <t>38,39</t>
+  </si>
+  <si>
+    <t>58,59</t>
+  </si>
+  <si>
+    <t>41,93</t>
+  </si>
+  <si>
+    <t>42,74</t>
+  </si>
+  <si>
+    <t>77,95</t>
+  </si>
+  <si>
+    <t>51,96</t>
+  </si>
+  <si>
+    <t>56,48</t>
+  </si>
+  <si>
+    <t>67,58</t>
+  </si>
+  <si>
+    <t>76,52</t>
+  </si>
+  <si>
+    <t>78,04</t>
+  </si>
+  <si>
+    <t>84,51</t>
+  </si>
+  <si>
+    <t>72,39</t>
+  </si>
+  <si>
+    <t>64,11</t>
+  </si>
+  <si>
+    <t>39,61</t>
+  </si>
+  <si>
+    <t>52,45</t>
+  </si>
+  <si>
+    <t>37,34</t>
+  </si>
+  <si>
+    <t>34,71</t>
+  </si>
+  <si>
+    <t>33,66</t>
+  </si>
+  <si>
+    <t>39,59</t>
+  </si>
+  <si>
+    <t>60,84</t>
+  </si>
+  <si>
+    <t>45,2</t>
+  </si>
+  <si>
+    <t>29,58</t>
+  </si>
+  <si>
+    <t>72,24</t>
+  </si>
+  <si>
+    <t>50,23</t>
+  </si>
+  <si>
+    <t>52,71</t>
+  </si>
+  <si>
+    <t>72,54</t>
+  </si>
+  <si>
+    <t>59,98</t>
+  </si>
+  <si>
+    <t>68,08</t>
+  </si>
+  <si>
+    <t>74,77</t>
+  </si>
+  <si>
+    <t>61,52</t>
+  </si>
+  <si>
+    <t>75,55</t>
+  </si>
+  <si>
+    <t>73,98</t>
+  </si>
+  <si>
+    <t>58,29</t>
+  </si>
+  <si>
+    <t>85,39</t>
+  </si>
+  <si>
+    <t>43,61</t>
+  </si>
+  <si>
+    <t>95,88</t>
+  </si>
+  <si>
+    <t>40,11</t>
+  </si>
+  <si>
+    <t>68,73</t>
+  </si>
+  <si>
+    <t>77,68</t>
+  </si>
+  <si>
+    <t>59,79</t>
+  </si>
+  <si>
+    <t>71,02</t>
+  </si>
+  <si>
+    <t>42,85</t>
+  </si>
+  <si>
+    <t>13,24</t>
+  </si>
+  <si>
+    <t>0,24</t>
   </si>
 </sst>
 </file>
@@ -2712,11 +3273,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3018,7 +3582,7 @@
   <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3081,8 +3645,8 @@
       <c r="E5" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="3">
-        <v>64.48</v>
+      <c r="F5" s="4" t="s">
+        <v>882</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>203</v>
@@ -3109,8 +3673,8 @@
       <c r="E6" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F6" s="3">
-        <v>54.83</v>
+      <c r="F6" s="4" t="s">
+        <v>883</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>204</v>
@@ -3137,8 +3701,8 @@
       <c r="E7" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F7" s="3">
-        <v>37.71</v>
+      <c r="F7" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>205</v>
@@ -3165,8 +3729,8 @@
       <c r="E8" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F8" s="3">
-        <v>43.35</v>
+      <c r="F8" s="4" t="s">
+        <v>885</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>206</v>
@@ -3193,8 +3757,8 @@
       <c r="E9" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="F9" s="3">
-        <v>46.5</v>
+      <c r="F9" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>207</v>
@@ -3221,8 +3785,8 @@
       <c r="E10" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F10" s="3">
-        <v>52.52</v>
+      <c r="F10" s="4" t="s">
+        <v>887</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>208</v>
@@ -3249,8 +3813,8 @@
       <c r="E11" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F11" s="3">
-        <v>70.349999999999994</v>
+      <c r="F11" s="4" t="s">
+        <v>888</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>209</v>
@@ -3277,8 +3841,8 @@
       <c r="E12" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F12" s="3">
-        <v>82.93</v>
+      <c r="F12" s="4" t="s">
+        <v>889</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>210</v>
@@ -3305,8 +3869,8 @@
       <c r="E13" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F13" s="3">
-        <v>47.78</v>
+      <c r="F13" s="4" t="s">
+        <v>890</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>211</v>
@@ -3333,8 +3897,8 @@
       <c r="E14" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="3">
-        <v>67.12</v>
+      <c r="F14" s="4" t="s">
+        <v>891</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>212</v>
@@ -3361,8 +3925,8 @@
       <c r="E15" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="3">
-        <v>61.39</v>
+      <c r="F15" s="4" t="s">
+        <v>892</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>213</v>
@@ -3389,8 +3953,8 @@
       <c r="E16" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="3">
-        <v>73.3</v>
+      <c r="F16" s="4" t="s">
+        <v>893</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>214</v>
@@ -3417,8 +3981,8 @@
       <c r="E17" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F17" s="3">
-        <v>48.92</v>
+      <c r="F17" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>215</v>
@@ -3445,8 +4009,8 @@
       <c r="E18" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F18" s="3">
-        <v>81.96</v>
+      <c r="F18" s="4" t="s">
+        <v>895</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>216</v>
@@ -3473,8 +4037,8 @@
       <c r="E19" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F19" s="3">
-        <v>61.69</v>
+      <c r="F19" s="4" t="s">
+        <v>896</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>217</v>
@@ -3501,8 +4065,8 @@
       <c r="E20" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F20" s="3">
-        <v>60.09</v>
+      <c r="F20" s="4" t="s">
+        <v>897</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>218</v>
@@ -3529,8 +4093,8 @@
       <c r="E21" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F21" s="3">
-        <v>75.260000000000005</v>
+      <c r="F21" s="4" t="s">
+        <v>898</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>219</v>
@@ -3557,8 +4121,8 @@
       <c r="E22" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F22" s="3">
-        <v>69.34</v>
+      <c r="F22" s="4" t="s">
+        <v>899</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>220</v>
@@ -3585,8 +4149,8 @@
       <c r="E23" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F23" s="3">
-        <v>31.29</v>
+      <c r="F23" s="4" t="s">
+        <v>900</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>221</v>
@@ -3613,8 +4177,8 @@
       <c r="E24" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F24" s="3">
-        <v>42.75</v>
+      <c r="F24" s="4" t="s">
+        <v>901</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>222</v>
@@ -3641,8 +4205,8 @@
       <c r="E25" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F25" s="3">
-        <v>44.66</v>
+      <c r="F25" s="4" t="s">
+        <v>902</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>223</v>
@@ -3669,8 +4233,8 @@
       <c r="E26" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F26" s="3">
-        <v>49.76</v>
+      <c r="F26" s="4" t="s">
+        <v>903</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>224</v>
@@ -3697,8 +4261,8 @@
       <c r="E27" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F27" s="3">
-        <v>73.42</v>
+      <c r="F27" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>225</v>
@@ -3725,8 +4289,8 @@
       <c r="E28" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F28" s="3">
-        <v>88.63</v>
+      <c r="F28" s="4" t="s">
+        <v>905</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>226</v>
@@ -3753,8 +4317,8 @@
       <c r="E29" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F29" s="3">
-        <v>43.01</v>
+      <c r="F29" s="4" t="s">
+        <v>906</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>227</v>
@@ -3781,8 +4345,8 @@
       <c r="E30" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F30" s="3">
-        <v>29.43</v>
+      <c r="F30" s="4" t="s">
+        <v>907</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>228</v>
@@ -3809,8 +4373,8 @@
       <c r="E31" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F31" s="3">
-        <v>67.38</v>
+      <c r="F31" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>229</v>
@@ -3837,8 +4401,8 @@
       <c r="E32" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F32" s="3">
-        <v>72.3</v>
+      <c r="F32" s="4" t="s">
+        <v>909</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>230</v>
@@ -3865,8 +4429,8 @@
       <c r="E33" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F33" s="3">
-        <v>25.28</v>
+      <c r="F33" s="4" t="s">
+        <v>910</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>231</v>
@@ -3893,8 +4457,8 @@
       <c r="E34" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F34" s="3">
-        <v>34.56</v>
+      <c r="F34" s="4" t="s">
+        <v>911</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>232</v>
@@ -3921,8 +4485,8 @@
       <c r="E35" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F35" s="3">
-        <v>33.99</v>
+      <c r="F35" s="4" t="s">
+        <v>912</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>233</v>
@@ -3949,8 +4513,8 @@
       <c r="E36" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F36" s="3">
-        <v>53.19</v>
+      <c r="F36" s="4" t="s">
+        <v>913</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>206</v>
@@ -3977,8 +4541,8 @@
       <c r="E37" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="F37" s="3">
-        <v>27.83</v>
+      <c r="F37" s="4" t="s">
+        <v>914</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>234</v>
@@ -4005,7 +4569,7 @@
       <c r="E38" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>63</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -4033,8 +4597,8 @@
       <c r="E39" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="F39" s="3">
-        <v>95.54</v>
+      <c r="F39" s="4" t="s">
+        <v>915</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>236</v>
@@ -4061,8 +4625,8 @@
       <c r="E40" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F40" s="3">
-        <v>82.97</v>
+      <c r="F40" s="4" t="s">
+        <v>916</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>237</v>
@@ -4089,8 +4653,8 @@
       <c r="E41" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="F41" s="3">
-        <v>85.13</v>
+      <c r="F41" s="4" t="s">
+        <v>917</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>238</v>
@@ -4117,8 +4681,8 @@
       <c r="E42" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F42" s="3">
-        <v>58.45</v>
+      <c r="F42" s="4" t="s">
+        <v>918</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>239</v>
@@ -4145,8 +4709,8 @@
       <c r="E43" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F43" s="3">
-        <v>64.64</v>
+      <c r="F43" s="4" t="s">
+        <v>919</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>240</v>
@@ -4173,8 +4737,8 @@
       <c r="E44" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="F44" s="3">
-        <v>63.44</v>
+      <c r="F44" s="4" t="s">
+        <v>920</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>241</v>
@@ -4201,8 +4765,8 @@
       <c r="E45" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="F45" s="3">
-        <v>61.88</v>
+      <c r="F45" s="4" t="s">
+        <v>921</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>242</v>
@@ -4229,8 +4793,8 @@
       <c r="E46" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F46" s="3">
-        <v>92.63</v>
+      <c r="F46" s="4" t="s">
+        <v>922</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>243</v>
@@ -4257,8 +4821,8 @@
       <c r="E47" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="F47" s="3">
-        <v>74.31</v>
+      <c r="F47" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>244</v>
@@ -4285,8 +4849,8 @@
       <c r="E48" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="F48" s="3">
-        <v>45.14</v>
+      <c r="F48" s="4" t="s">
+        <v>923</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>245</v>
@@ -4313,8 +4877,8 @@
       <c r="E49" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="F49" s="3">
-        <v>26.86</v>
+      <c r="F49" s="4" t="s">
+        <v>924</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>246</v>
@@ -4341,8 +4905,8 @@
       <c r="E50" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="F50" s="3">
-        <v>30.53</v>
+      <c r="F50" s="4" t="s">
+        <v>925</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>247</v>
@@ -4369,8 +4933,8 @@
       <c r="E51" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F51" s="3">
-        <v>36.76</v>
+      <c r="F51" s="4" t="s">
+        <v>926</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>248</v>
@@ -4397,8 +4961,8 @@
       <c r="E52" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="F52" s="3">
-        <v>43.31</v>
+      <c r="F52" s="4" t="s">
+        <v>927</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>249</v>
@@ -4425,8 +4989,8 @@
       <c r="E53" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F53" s="3">
-        <v>50.32</v>
+      <c r="F53" s="4" t="s">
+        <v>928</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>250</v>
@@ -4453,8 +5017,8 @@
       <c r="E54" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F54" s="3">
-        <v>38.4</v>
+      <c r="F54" s="4" t="s">
+        <v>929</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>251</v>
@@ -4481,8 +5045,8 @@
       <c r="E55" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F55" s="3">
-        <v>46.88</v>
+      <c r="F55" s="4" t="s">
+        <v>930</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>252</v>
@@ -4509,8 +5073,8 @@
       <c r="E56" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F56" s="3">
-        <v>45.9</v>
+      <c r="F56" s="4" t="s">
+        <v>931</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>253</v>
@@ -4537,8 +5101,8 @@
       <c r="E57" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F57" s="3">
-        <v>54.03</v>
+      <c r="F57" s="4" t="s">
+        <v>932</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>254</v>
@@ -4565,8 +5129,8 @@
       <c r="E58" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F58" s="3">
-        <v>63.48</v>
+      <c r="F58" s="4" t="s">
+        <v>933</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>255</v>
@@ -4593,8 +5157,8 @@
       <c r="E59" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="F59" s="3">
-        <v>57.18</v>
+      <c r="F59" s="4" t="s">
+        <v>934</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>256</v>
@@ -4621,7 +5185,7 @@
       <c r="E60" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>41</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -4649,8 +5213,8 @@
       <c r="E61" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F61" s="3">
-        <v>51.34</v>
+      <c r="F61" s="4" t="s">
+        <v>935</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>258</v>
@@ -4677,8 +5241,8 @@
       <c r="E62" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="F62" s="3">
-        <v>36.21</v>
+      <c r="F62" s="4" t="s">
+        <v>936</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>259</v>
@@ -4705,8 +5269,8 @@
       <c r="E63" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="F63" s="3">
-        <v>51.67</v>
+      <c r="F63" s="4" t="s">
+        <v>937</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>260</v>
@@ -4733,8 +5297,8 @@
       <c r="E64" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F64" s="3">
-        <v>44.75</v>
+      <c r="F64" s="4" t="s">
+        <v>938</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>261</v>
@@ -4761,8 +5325,8 @@
       <c r="E65" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F65" s="3">
-        <v>47.26</v>
+      <c r="F65" s="4" t="s">
+        <v>939</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>262</v>
@@ -4789,8 +5353,8 @@
       <c r="E66" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F66" s="3">
-        <v>66.34</v>
+      <c r="F66" s="4" t="s">
+        <v>940</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>263</v>
@@ -4817,8 +5381,8 @@
       <c r="E67" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F67" s="3">
-        <v>48.11</v>
+      <c r="F67" s="4" t="s">
+        <v>941</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>264</v>
@@ -4845,8 +5409,8 @@
       <c r="E68" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="F68" s="3">
-        <v>55.09</v>
+      <c r="F68" s="4" t="s">
+        <v>942</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>265</v>
@@ -4873,8 +5437,8 @@
       <c r="E69" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F69" s="3">
-        <v>13.79</v>
+      <c r="F69" s="4" t="s">
+        <v>943</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>266</v>
@@ -4901,8 +5465,8 @@
       <c r="E70" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F70" s="3">
-        <v>76.12</v>
+      <c r="F70" s="4" t="s">
+        <v>944</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>267</v>
@@ -4929,8 +5493,8 @@
       <c r="E71" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F71" s="3">
-        <v>93.04</v>
+      <c r="F71" s="4" t="s">
+        <v>945</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>268</v>
@@ -4957,8 +5521,8 @@
       <c r="E72" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F72" s="3">
-        <v>90.37</v>
+      <c r="F72" s="4" t="s">
+        <v>946</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>269</v>
@@ -4985,8 +5549,8 @@
       <c r="E73" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F73" s="3">
-        <v>48.24</v>
+      <c r="F73" s="4" t="s">
+        <v>947</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>270</v>
@@ -5013,8 +5577,8 @@
       <c r="E74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F74" s="3">
-        <v>43.54</v>
+      <c r="F74" s="4" t="s">
+        <v>948</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>271</v>
@@ -5041,8 +5605,8 @@
       <c r="E75" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F75" s="3">
-        <v>52.64</v>
+      <c r="F75" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>272</v>
@@ -5069,8 +5633,8 @@
       <c r="E76" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="F76" s="3">
-        <v>34.1</v>
+      <c r="F76" s="4" t="s">
+        <v>950</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>273</v>
@@ -5097,8 +5661,8 @@
       <c r="E77" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F77" s="3">
-        <v>70.11</v>
+      <c r="F77" s="4" t="s">
+        <v>951</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>274</v>
@@ -5125,8 +5689,8 @@
       <c r="E78" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="F78" s="3">
-        <v>39.44</v>
+      <c r="F78" s="4" t="s">
+        <v>952</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>275</v>
@@ -5153,8 +5717,8 @@
       <c r="E79" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="F79" s="3">
-        <v>45.85</v>
+      <c r="F79" s="4" t="s">
+        <v>953</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>276</v>
@@ -5181,8 +5745,8 @@
       <c r="E80" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="F80" s="3">
-        <v>40.92</v>
+      <c r="F80" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="G80" s="3">
         <v>66</v>
@@ -5209,8 +5773,8 @@
       <c r="E81" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="F81" s="3">
-        <v>41.15</v>
+      <c r="F81" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>277</v>
@@ -5237,8 +5801,8 @@
       <c r="E82" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="F82" s="3">
-        <v>46.32</v>
+      <c r="F82" s="4" t="s">
+        <v>956</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>278</v>
@@ -5265,8 +5829,8 @@
       <c r="E83" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="F83" s="3">
-        <v>52.65</v>
+      <c r="F83" s="4" t="s">
+        <v>957</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>279</v>
@@ -5293,8 +5857,8 @@
       <c r="E84" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="F84" s="3">
-        <v>59.23</v>
+      <c r="F84" s="4" t="s">
+        <v>958</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>280</v>
@@ -5321,8 +5885,8 @@
       <c r="E85" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F85" s="3">
-        <v>40.409999999999997</v>
+      <c r="F85" s="4" t="s">
+        <v>959</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>281</v>
@@ -5349,8 +5913,8 @@
       <c r="E86" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="F86" s="3">
-        <v>31.17</v>
+      <c r="F86" s="4" t="s">
+        <v>960</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>282</v>
@@ -5377,8 +5941,8 @@
       <c r="E87" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="F87" s="3">
-        <v>36.93</v>
+      <c r="F87" s="4" t="s">
+        <v>961</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>283</v>
@@ -5405,8 +5969,8 @@
       <c r="E88" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F88" s="3">
-        <v>20.88</v>
+      <c r="F88" s="4" t="s">
+        <v>962</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>284</v>
@@ -5433,8 +5997,8 @@
       <c r="E89" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="F89" s="3">
-        <v>25.91</v>
+      <c r="F89" s="4" t="s">
+        <v>963</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>285</v>
@@ -5461,8 +6025,8 @@
       <c r="E90" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="F90" s="3">
-        <v>24.04</v>
+      <c r="F90" s="4" t="s">
+        <v>964</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>286</v>
@@ -5489,8 +6053,8 @@
       <c r="E91" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F91" s="3">
-        <v>28.87</v>
+      <c r="F91" s="4" t="s">
+        <v>965</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>287</v>
@@ -5517,8 +6081,8 @@
       <c r="E92" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F92" s="3">
-        <v>65.540000000000006</v>
+      <c r="F92" s="4" t="s">
+        <v>966</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>223</v>
@@ -5545,8 +6109,8 @@
       <c r="E93" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F93" s="3">
-        <v>25.58</v>
+      <c r="F93" s="4" t="s">
+        <v>967</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>288</v>
@@ -5573,8 +6137,8 @@
       <c r="E94" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F94" s="3">
-        <v>49.45</v>
+      <c r="F94" s="4" t="s">
+        <v>968</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>289</v>
@@ -5601,8 +6165,8 @@
       <c r="E95" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F95" s="3">
-        <v>53.17</v>
+      <c r="F95" s="4" t="s">
+        <v>969</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>290</v>
@@ -5629,8 +6193,8 @@
       <c r="E96" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="F96" s="3">
-        <v>41.53</v>
+      <c r="F96" s="4" t="s">
+        <v>970</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>289</v>
@@ -5657,8 +6221,8 @@
       <c r="E97" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F97" s="3">
-        <v>51.54</v>
+      <c r="F97" s="4" t="s">
+        <v>971</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>291</v>
@@ -5685,8 +6249,8 @@
       <c r="E98" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="F98" s="3">
-        <v>23.83</v>
+      <c r="F98" s="4" t="s">
+        <v>972</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>292</v>
@@ -5713,8 +6277,8 @@
       <c r="E99" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F99" s="3">
-        <v>35.909999999999997</v>
+      <c r="F99" s="4" t="s">
+        <v>973</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>275</v>
@@ -5741,8 +6305,8 @@
       <c r="E100" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="F100" s="3">
-        <v>25.54</v>
+      <c r="F100" s="4" t="s">
+        <v>974</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>293</v>
@@ -5769,8 +6333,8 @@
       <c r="E101" s="3">
         <v>82</v>
       </c>
-      <c r="F101" s="3">
-        <v>36.4</v>
+      <c r="F101" s="4" t="s">
+        <v>975</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>294</v>
@@ -5797,8 +6361,8 @@
       <c r="E102" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F102" s="3">
-        <v>31.87</v>
+      <c r="F102" s="4" t="s">
+        <v>976</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>295</v>
@@ -5825,8 +6389,8 @@
       <c r="E103" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="F103" s="3">
-        <v>94.27</v>
+      <c r="F103" s="4" t="s">
+        <v>977</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>296</v>
@@ -5853,8 +6417,8 @@
       <c r="E104" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="F104" s="3">
-        <v>83.15</v>
+      <c r="F104" s="4" t="s">
+        <v>978</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>297</v>
@@ -5881,8 +6445,8 @@
       <c r="E105" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="F105" s="3">
-        <v>84.17</v>
+      <c r="F105" s="4" t="s">
+        <v>979</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>298</v>
@@ -5909,8 +6473,8 @@
       <c r="E106" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="F106" s="3">
-        <v>91.18</v>
+      <c r="F106" s="4" t="s">
+        <v>980</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>299</v>
@@ -5937,8 +6501,8 @@
       <c r="E107" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="F107" s="3">
-        <v>70.459999999999994</v>
+      <c r="F107" s="4" t="s">
+        <v>981</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>300</v>
@@ -5965,8 +6529,8 @@
       <c r="E108" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F108" s="3">
-        <v>85.42</v>
+      <c r="F108" s="4" t="s">
+        <v>982</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>301</v>
@@ -5993,8 +6557,8 @@
       <c r="E109" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="F109" s="3">
-        <v>58.17</v>
+      <c r="F109" s="4" t="s">
+        <v>983</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>302</v>
@@ -6021,8 +6585,8 @@
       <c r="E110" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="F110" s="3">
-        <v>58.93</v>
+      <c r="F110" s="4" t="s">
+        <v>984</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>303</v>
@@ -6049,8 +6613,8 @@
       <c r="E111" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="F111" s="3">
-        <v>55.89</v>
+      <c r="F111" s="4" t="s">
+        <v>985</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>304</v>
@@ -6077,8 +6641,8 @@
       <c r="E112" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="F112" s="3">
-        <v>23.29</v>
+      <c r="F112" s="4" t="s">
+        <v>986</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>305</v>
@@ -6105,8 +6669,8 @@
       <c r="E113" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="F113" s="3">
-        <v>51.84</v>
+      <c r="F113" s="4" t="s">
+        <v>987</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>306</v>
@@ -6133,8 +6697,8 @@
       <c r="E114" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="F114" s="3">
-        <v>62.19</v>
+      <c r="F114" s="4" t="s">
+        <v>988</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>307</v>
@@ -6161,8 +6725,8 @@
       <c r="E115" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="F115" s="3">
-        <v>75.59</v>
+      <c r="F115" s="4" t="s">
+        <v>989</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>308</v>
@@ -6189,8 +6753,8 @@
       <c r="E116" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F116" s="3">
-        <v>58.96</v>
+      <c r="F116" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>309</v>
@@ -6217,8 +6781,8 @@
       <c r="E117" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="F117" s="3">
-        <v>98.06</v>
+      <c r="F117" s="4" t="s">
+        <v>990</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>310</v>
@@ -6245,8 +6809,8 @@
       <c r="E118" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="F118" s="3">
-        <v>65.459999999999994</v>
+      <c r="F118" s="4" t="s">
+        <v>991</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>311</v>
@@ -6273,8 +6837,8 @@
       <c r="E119" s="3">
         <v>59</v>
       </c>
-      <c r="F119" s="3">
-        <v>51.47</v>
+      <c r="F119" s="4" t="s">
+        <v>992</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>312</v>
@@ -6301,8 +6865,8 @@
       <c r="E120" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="F120" s="3">
-        <v>84.75</v>
+      <c r="F120" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>313</v>
@@ -6329,8 +6893,8 @@
       <c r="E121" s="3">
         <v>60</v>
       </c>
-      <c r="F121" s="3">
-        <v>54.22</v>
+      <c r="F121" s="4" t="s">
+        <v>994</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>314</v>
@@ -6357,8 +6921,8 @@
       <c r="E122" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F122" s="3">
-        <v>61.66</v>
+      <c r="F122" s="4" t="s">
+        <v>995</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>315</v>
@@ -6385,8 +6949,8 @@
       <c r="E123" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F123" s="3">
-        <v>82.13</v>
+      <c r="F123" s="4" t="s">
+        <v>996</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>316</v>
@@ -6413,8 +6977,8 @@
       <c r="E124" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="F124" s="3">
-        <v>58.11</v>
+      <c r="F124" s="4" t="s">
+        <v>997</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>317</v>
@@ -6441,8 +7005,8 @@
       <c r="E125" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="F125" s="3">
-        <v>39.53</v>
+      <c r="F125" s="4" t="s">
+        <v>998</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>318</v>
@@ -6469,8 +7033,8 @@
       <c r="E126" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="F126" s="3">
-        <v>45.59</v>
+      <c r="F126" s="4" t="s">
+        <v>999</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>319</v>
@@ -6497,8 +7061,8 @@
       <c r="E127" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="F127" s="3">
-        <v>66.239999999999995</v>
+      <c r="F127" s="4" t="s">
+        <v>1000</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>320</v>
@@ -6525,8 +7089,8 @@
       <c r="E128" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F128" s="3">
-        <v>84.93</v>
+      <c r="F128" s="4" t="s">
+        <v>1001</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>321</v>
@@ -6553,8 +7117,8 @@
       <c r="E129" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F129" s="3">
-        <v>86.02</v>
+      <c r="F129" s="4" t="s">
+        <v>1002</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>269</v>
@@ -6581,8 +7145,8 @@
       <c r="E130" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F130" s="3">
-        <v>76.31</v>
+      <c r="F130" s="4" t="s">
+        <v>1003</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>322</v>
@@ -6609,8 +7173,8 @@
       <c r="E131" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F131" s="3">
-        <v>73.09</v>
+      <c r="F131" s="4" t="s">
+        <v>1004</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>323</v>
@@ -6637,8 +7201,8 @@
       <c r="E132" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F132" s="3">
-        <v>97.56</v>
+      <c r="F132" s="4" t="s">
+        <v>1005</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>269</v>
@@ -6665,8 +7229,8 @@
       <c r="E133" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F133" s="3">
-        <v>96.99</v>
+      <c r="F133" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>324</v>
@@ -6693,8 +7257,8 @@
       <c r="E134" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F134" s="3">
-        <v>51.64</v>
+      <c r="F134" s="4" t="s">
+        <v>1006</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>325</v>
@@ -6721,8 +7285,8 @@
       <c r="E135" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F135" s="3">
-        <v>39.99</v>
+      <c r="F135" s="4" t="s">
+        <v>1007</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>326</v>
@@ -6749,8 +7313,8 @@
       <c r="E136" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="F136" s="3">
-        <v>86.35</v>
+      <c r="F136" s="4" t="s">
+        <v>1008</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>327</v>
@@ -6777,8 +7341,8 @@
       <c r="E137" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="F137" s="3">
-        <v>85.18</v>
+      <c r="F137" s="4" t="s">
+        <v>1009</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>328</v>
@@ -6805,8 +7369,8 @@
       <c r="E138" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F138" s="3">
-        <v>73.66</v>
+      <c r="F138" s="4" t="s">
+        <v>1010</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>329</v>
@@ -6833,8 +7397,8 @@
       <c r="E139" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F139" s="3">
-        <v>85.15</v>
+      <c r="F139" s="4" t="s">
+        <v>1011</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>330</v>
@@ -6861,8 +7425,8 @@
       <c r="E140" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F140" s="3">
-        <v>77.849999999999994</v>
+      <c r="F140" s="4" t="s">
+        <v>1012</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>331</v>
@@ -6889,8 +7453,8 @@
       <c r="E141" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="F141" s="3">
-        <v>52.34</v>
+      <c r="F141" s="4" t="s">
+        <v>1013</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>332</v>
@@ -6917,8 +7481,8 @@
       <c r="E142" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="F142" s="3">
-        <v>57.3</v>
+      <c r="F142" s="4" t="s">
+        <v>1014</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>333</v>
@@ -6945,8 +7509,8 @@
       <c r="E143" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="F143" s="3">
-        <v>44.49</v>
+      <c r="F143" s="4" t="s">
+        <v>1015</v>
       </c>
       <c r="G143" s="3">
         <v>66</v>
@@ -6973,8 +7537,8 @@
       <c r="E144" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="F144" s="3">
-        <v>32.46</v>
+      <c r="F144" s="4" t="s">
+        <v>1016</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>334</v>
@@ -7001,8 +7565,8 @@
       <c r="E145" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F145" s="3">
-        <v>23.22</v>
+      <c r="F145" s="4" t="s">
+        <v>1017</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>335</v>
@@ -7029,8 +7593,8 @@
       <c r="E146" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="F146" s="3">
-        <v>27.1</v>
+      <c r="F146" s="4" t="s">
+        <v>1018</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>336</v>
@@ -7057,8 +7621,8 @@
       <c r="E147" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="F147" s="3">
-        <v>33.51</v>
+      <c r="F147" s="4" t="s">
+        <v>1019</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>337</v>
@@ -7085,8 +7649,8 @@
       <c r="E148" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F148" s="3">
-        <v>32.08</v>
+      <c r="F148" s="4" t="s">
+        <v>1020</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>338</v>
@@ -7113,8 +7677,8 @@
       <c r="E149" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="F149" s="3">
-        <v>84.22</v>
+      <c r="F149" s="4" t="s">
+        <v>1021</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>339</v>
@@ -7141,8 +7705,8 @@
       <c r="E150" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F150" s="3">
-        <v>37.07</v>
+      <c r="F150" s="4" t="s">
+        <v>1022</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>340</v>
@@ -7169,8 +7733,8 @@
       <c r="E151" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="F151" s="3">
-        <v>56.49</v>
+      <c r="F151" s="4" t="s">
+        <v>1023</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>341</v>
@@ -7197,8 +7761,8 @@
       <c r="E152" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="F152" s="3">
-        <v>80.849999999999994</v>
+      <c r="F152" s="4" t="s">
+        <v>1024</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>342</v>
@@ -7225,8 +7789,8 @@
       <c r="E153" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F153" s="3">
-        <v>38.39</v>
+      <c r="F153" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>329</v>
@@ -7253,8 +7817,8 @@
       <c r="E154" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="F154" s="3">
-        <v>99.5</v>
+      <c r="F154" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>269</v>
@@ -7281,8 +7845,8 @@
       <c r="E155" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F155" s="3">
-        <v>58.59</v>
+      <c r="F155" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>343</v>
@@ -7309,8 +7873,8 @@
       <c r="E156" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F156" s="3">
-        <v>41.93</v>
+      <c r="F156" s="4" t="s">
+        <v>1027</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>344</v>
@@ -7337,8 +7901,8 @@
       <c r="E157" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="F157" s="3">
-        <v>42.74</v>
+      <c r="F157" s="4" t="s">
+        <v>1028</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>345</v>
@@ -7365,8 +7929,8 @@
       <c r="E158" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="F158" s="3">
-        <v>77.95</v>
+      <c r="F158" s="4" t="s">
+        <v>1029</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>346</v>
@@ -7393,8 +7957,8 @@
       <c r="E159" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="F159" s="3">
-        <v>51.96</v>
+      <c r="F159" s="4" t="s">
+        <v>1030</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>347</v>
@@ -7421,8 +7985,8 @@
       <c r="E160" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="F160" s="3">
-        <v>56.48</v>
+      <c r="F160" s="4" t="s">
+        <v>1031</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>348</v>
@@ -7449,8 +8013,8 @@
       <c r="E161" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="F161" s="3">
-        <v>67.58</v>
+      <c r="F161" s="4" t="s">
+        <v>1032</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>349</v>
@@ -7477,8 +8041,8 @@
       <c r="E162" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="F162" s="3">
-        <v>76.52</v>
+      <c r="F162" s="4" t="s">
+        <v>1033</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>350</v>
@@ -7505,8 +8069,8 @@
       <c r="E163" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="F163" s="3">
-        <v>78.040000000000006</v>
+      <c r="F163" s="4" t="s">
+        <v>1034</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>343</v>
@@ -7533,8 +8097,8 @@
       <c r="E164" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="F164" s="3">
-        <v>84.51</v>
+      <c r="F164" s="4" t="s">
+        <v>1035</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>351</v>
@@ -7561,8 +8125,8 @@
       <c r="E165" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="F165" s="3">
-        <v>72.39</v>
+      <c r="F165" s="4" t="s">
+        <v>1036</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>352</v>
@@ -7589,8 +8153,8 @@
       <c r="E166" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="F166" s="3">
-        <v>64.11</v>
+      <c r="F166" s="4" t="s">
+        <v>1037</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>353</v>
@@ -7617,8 +8181,8 @@
       <c r="E167" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="F167" s="3">
-        <v>39.61</v>
+      <c r="F167" s="4" t="s">
+        <v>1038</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>354</v>
@@ -7645,8 +8209,8 @@
       <c r="E168" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="F168" s="3">
-        <v>52.45</v>
+      <c r="F168" s="4" t="s">
+        <v>1039</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>355</v>
@@ -7673,8 +8237,8 @@
       <c r="E169" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F169" s="3">
-        <v>37.340000000000003</v>
+      <c r="F169" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>356</v>
@@ -7701,8 +8265,8 @@
       <c r="E170" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F170" s="3">
-        <v>34.71</v>
+      <c r="F170" s="4" t="s">
+        <v>1041</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>357</v>
@@ -7729,8 +8293,8 @@
       <c r="E171" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="F171" s="3">
-        <v>33.659999999999997</v>
+      <c r="F171" s="4" t="s">
+        <v>1042</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>358</v>
@@ -7757,8 +8321,8 @@
       <c r="E172" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F172" s="3">
-        <v>39.590000000000003</v>
+      <c r="F172" s="4" t="s">
+        <v>1043</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>359</v>
@@ -7785,8 +8349,8 @@
       <c r="E173" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="F173" s="3">
-        <v>60.84</v>
+      <c r="F173" s="4" t="s">
+        <v>1044</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>360</v>
@@ -7813,8 +8377,8 @@
       <c r="E174" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F174" s="3">
-        <v>45.2</v>
+      <c r="F174" s="4" t="s">
+        <v>1045</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>361</v>
@@ -7841,8 +8405,8 @@
       <c r="E175" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="F175" s="3">
-        <v>29.58</v>
+      <c r="F175" s="4" t="s">
+        <v>1046</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>362</v>
@@ -7869,8 +8433,8 @@
       <c r="E176" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="F176" s="3">
-        <v>72.239999999999995</v>
+      <c r="F176" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>269</v>
@@ -7897,8 +8461,8 @@
       <c r="E177" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="F177" s="3">
-        <v>50.23</v>
+      <c r="F177" s="4" t="s">
+        <v>1048</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>363</v>
@@ -7925,8 +8489,8 @@
       <c r="E178" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="F178" s="3">
-        <v>52.71</v>
+      <c r="F178" s="4" t="s">
+        <v>1049</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>364</v>
@@ -7953,8 +8517,8 @@
       <c r="E179" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F179" s="3">
-        <v>72.540000000000006</v>
+      <c r="F179" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>365</v>
@@ -7981,8 +8545,8 @@
       <c r="E180" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="F180" s="3">
-        <v>59.98</v>
+      <c r="F180" s="4" t="s">
+        <v>1051</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>366</v>
@@ -8009,8 +8573,8 @@
       <c r="E181" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F181" s="3">
-        <v>68.08</v>
+      <c r="F181" s="4" t="s">
+        <v>1052</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>367</v>
@@ -8037,8 +8601,8 @@
       <c r="E182" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F182" s="3">
-        <v>74.77</v>
+      <c r="F182" s="4" t="s">
+        <v>1053</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>368</v>
@@ -8065,8 +8629,8 @@
       <c r="E183" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="F183" s="3">
-        <v>61.52</v>
+      <c r="F183" s="4" t="s">
+        <v>1054</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>369</v>
@@ -8093,8 +8657,8 @@
       <c r="E184" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="F184" s="3">
-        <v>75.55</v>
+      <c r="F184" s="4" t="s">
+        <v>1055</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>370</v>
@@ -8121,8 +8685,8 @@
       <c r="E185" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="F185" s="3">
-        <v>73.98</v>
+      <c r="F185" s="4" t="s">
+        <v>1056</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>371</v>
@@ -8149,8 +8713,8 @@
       <c r="E186" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="F186" s="3">
-        <v>58.29</v>
+      <c r="F186" s="4" t="s">
+        <v>1057</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>372</v>
@@ -8177,8 +8741,8 @@
       <c r="E187" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F187" s="3">
-        <v>85.39</v>
+      <c r="F187" s="4" t="s">
+        <v>1058</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>373</v>
@@ -8205,8 +8769,8 @@
       <c r="E188" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="F188" s="3">
-        <v>43.61</v>
+      <c r="F188" s="4" t="s">
+        <v>1059</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>374</v>
@@ -8233,8 +8797,8 @@
       <c r="E189" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="F189" s="3">
-        <v>95.88</v>
+      <c r="F189" s="4" t="s">
+        <v>1060</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>375</v>
@@ -8261,8 +8825,8 @@
       <c r="E190" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="F190" s="3">
-        <v>40.11</v>
+      <c r="F190" s="4" t="s">
+        <v>1061</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>376</v>
@@ -8289,8 +8853,8 @@
       <c r="E191" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="F191" s="3">
-        <v>83.98</v>
+      <c r="F191" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>377</v>
@@ -8317,8 +8881,8 @@
       <c r="E192" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F192" s="3">
-        <v>68.73</v>
+      <c r="F192" s="4" t="s">
+        <v>1062</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>329</v>
@@ -8345,8 +8909,8 @@
       <c r="E193" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="F193" s="3">
-        <v>77.680000000000007</v>
+      <c r="F193" s="4" t="s">
+        <v>1063</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>378</v>
@@ -8373,8 +8937,8 @@
       <c r="E194" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="F194" s="3">
-        <v>59.79</v>
+      <c r="F194" s="4" t="s">
+        <v>1064</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>379</v>
@@ -8401,8 +8965,8 @@
       <c r="E195" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="F195" s="3">
-        <v>71.02</v>
+      <c r="F195" s="4" t="s">
+        <v>1065</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>380</v>
@@ -8429,8 +8993,8 @@
       <c r="E196" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="F196" s="3">
-        <v>42.85</v>
+      <c r="F196" s="4" t="s">
+        <v>1066</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>381</v>
@@ -8457,8 +9021,8 @@
       <c r="E197" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="F197" s="3">
-        <v>13.24</v>
+      <c r="F197" s="4" t="s">
+        <v>1067</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>382</v>
@@ -8485,8 +9049,8 @@
       <c r="E198" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="F198" s="3">
-        <v>13.24</v>
+      <c r="F198" s="4" t="s">
+        <v>1067</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>383</v>
@@ -8513,8 +9077,8 @@
       <c r="E199" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F199" s="3">
-        <v>0.24</v>
+      <c r="F199" s="4" t="s">
+        <v>1068</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>384</v>
